--- a/App/static/uploads/templates/enrollment_template.xlsx
+++ b/App/static/uploads/templates/enrollment_template.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayse\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109D5DF9-7DF9-4F19-AF82-14A62C842504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Year</t>
   </si>
@@ -28,50 +34,53 @@
     <t>Program Name</t>
   </si>
   <si>
-    <t>Total Enrollment</t>
-  </si>
-  <si>
     <t>Full-Time Enrollment</t>
   </si>
   <si>
     <t>Part-Time Enrollment</t>
   </si>
   <si>
-    <t>Graduates</t>
-  </si>
-  <si>
-    <t>Total Staff</t>
-  </si>
-  <si>
-    <t>Full-Time Staff</t>
-  </si>
-  <si>
-    <t>Part-Time Staff</t>
-  </si>
-  <si>
     <t>St. Augustine</t>
   </si>
   <si>
-    <t>Mona</t>
-  </si>
-  <si>
-    <t>Computer Science</t>
-  </si>
-  <si>
-    <t>Economics</t>
-  </si>
-  <si>
-    <t>BSc Computer Science</t>
-  </si>
-  <si>
-    <t>BSc Economics</t>
+    <t>Report Type</t>
+  </si>
+  <si>
+    <t>Enrollment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	2024</t>
+  </si>
+  <si>
+    <t>Computer Sci.</t>
+  </si>
+  <si>
+    <t>BSc Comp Sci</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>Metric Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>persons</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,10 +132,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -134,13 +149,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -178,7 +201,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -212,6 +235,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -246,9 +270,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -421,117 +446,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" customWidth="1"/>
+    <col min="7" max="7" width="20.6328125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" customWidth="1"/>
+    <col min="10" max="10" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H2" s="2">
+        <v>220</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="H3" s="2">
+        <v>80</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2">
-        <v>2024</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>300</v>
-      </c>
-      <c r="F2">
-        <v>220</v>
-      </c>
-      <c r="G2">
-        <v>80</v>
-      </c>
-      <c r="H2">
-        <v>80</v>
-      </c>
-      <c r="I2">
-        <v>25</v>
-      </c>
-      <c r="J2">
-        <v>20</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>2024</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3">
-        <v>250</v>
-      </c>
-      <c r="F3">
-        <v>180</v>
-      </c>
-      <c r="G3">
-        <v>70</v>
-      </c>
-      <c r="H3">
-        <v>70</v>
-      </c>
-      <c r="I3">
-        <v>18</v>
-      </c>
-      <c r="J3">
-        <v>15</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/App/static/uploads/templates/enrollment_template.xlsx
+++ b/App/static/uploads/templates/enrollment_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayse\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109D5DF9-7DF9-4F19-AF82-14A62C842504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2193F9C0-30AB-4365-93EC-AB141C0CB62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Year</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Department</t>
   </si>
   <si>
-    <t>Program Name</t>
-  </si>
-  <si>
     <t>Full-Time Enrollment</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>Students</t>
   </si>
   <si>
-    <t>Metric Name</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
@@ -74,6 +68,15 @@
   </si>
   <si>
     <t>persons</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>ProgramName</t>
+  </si>
+  <si>
+    <t>MetricName</t>
   </si>
 </sst>
 </file>
@@ -134,14 +137,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,100 +472,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1">
         <v>220</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
         <v>80</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="3"/>
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
